--- a/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.316700645070743</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11.58734685087803</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>35.54158754624459</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>75.64975166572432</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.77604275960958</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>80.02107108480516</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,120 +456,1092 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>6.934176975914857</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>10.1037065463869</v>
+      </c>
+      <c r="E3">
+        <v>31.71890624143336</v>
+      </c>
+      <c r="F3">
+        <v>67.10804329253783</v>
+      </c>
+      <c r="G3">
+        <v>1.834440561273952</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>72.73905509820024</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>6.69654229618</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>9.275107572972599</v>
+      </c>
+      <c r="E4">
+        <v>29.5362204785055</v>
+      </c>
+      <c r="F4">
+        <v>62.26471093053735</v>
+      </c>
+      <c r="G4">
+        <v>1.866643299692039</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>68.40201623277959</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>6.598901954340645</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>8.949620921596624</v>
+      </c>
+      <c r="E5">
+        <v>28.6675321639381</v>
+      </c>
+      <c r="F5">
+        <v>60.34907897728529</v>
+      </c>
+      <c r="G5">
+        <v>1.87920490667592</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>66.64203978538251</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>6.582639568617997</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8.896139175633797</v>
+      </c>
+      <c r="E6">
+        <v>28.52413399469049</v>
+      </c>
+      <c r="F6">
+        <v>60.03364584161876</v>
+      </c>
+      <c r="G6">
+        <v>1.881264030474093</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>66.34971325768895</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>6.695228782993958</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>9.270676745026734</v>
+      </c>
+      <c r="E7">
+        <v>29.52444032695879</v>
+      </c>
+      <c r="F7">
+        <v>62.23868142874075</v>
+      </c>
+      <c r="G7">
+        <v>1.866814641648246</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>68.37827579578861</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>7.185265214939641</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>11.05170182137858</v>
+      </c>
+      <c r="E8">
+        <v>34.17244510104263</v>
+      </c>
+      <c r="F8">
+        <v>72.58613880080948</v>
+      </c>
+      <c r="G8">
+        <v>1.79722828698365</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>77.46096003921382</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E9">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F9">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G9">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E10">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F10">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G10">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E11">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F11">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G11">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E12">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F12">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G12">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E13">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F13">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G13">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E14">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F14">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G14">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E15">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F15">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G15">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E16">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F16">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G16">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E17">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F17">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G17">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E18">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F18">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G18">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E19">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F19">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G19">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E20">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F20">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G20">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E21">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F21">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G21">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E22">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F22">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G22">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E23">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F23">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G23">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E24">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F24">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G24">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>8.15941491196889</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>16.66206239670111</v>
+      </c>
+      <c r="E25">
+        <v>48.26101999382639</v>
+      </c>
+      <c r="F25">
+        <v>103.3802113722583</v>
+      </c>
+      <c r="G25">
+        <v>1.571345927093097</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>100.7589017581869</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
@@ -420,1128 +420,624 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>7.316700645070743</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
       <c r="D2">
-        <v>11.58734685087803</v>
+        <v>2.164231686260177</v>
       </c>
       <c r="E2">
-        <v>35.54158754624459</v>
+        <v>30.93755439804214</v>
       </c>
       <c r="F2">
-        <v>75.64975166572432</v>
+        <v>24.82253004437596</v>
       </c>
       <c r="G2">
-        <v>1.77604275960958</v>
+        <v>36.79505295082202</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>9.372623469429769</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>80.02107108480516</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
-        <v>0</v>
+        <v>19.0099075690521</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>6.934176975914857</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
       <c r="D3">
-        <v>10.1037065463869</v>
+        <v>2.122519041038432</v>
       </c>
       <c r="E3">
-        <v>31.71890624143336</v>
+        <v>28.65423867999856</v>
       </c>
       <c r="F3">
-        <v>67.10804329253783</v>
+        <v>23.05394107770012</v>
       </c>
       <c r="G3">
-        <v>1.834440561273952</v>
+        <v>34.15511877210734</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>8.908803315204777</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>72.73905509820024</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
-        <v>0</v>
+        <v>17.6428938323013</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>6.69654229618</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
       <c r="D4">
-        <v>9.275107572972599</v>
+        <v>2.097533728375411</v>
       </c>
       <c r="E4">
-        <v>29.5362204785055</v>
+        <v>27.18984927183101</v>
       </c>
       <c r="F4">
-        <v>62.26471093053735</v>
+        <v>21.91455764494753</v>
       </c>
       <c r="G4">
-        <v>1.866643299692039</v>
+        <v>32.45436817138771</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>8.619582511969085</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>68.40201623277959</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.7612983684433</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>6.598901954340645</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
       <c r="D5">
-        <v>8.949620921596624</v>
+        <v>2.087506276006411</v>
       </c>
       <c r="E5">
-        <v>28.6675321639381</v>
+        <v>26.57696618080705</v>
       </c>
       <c r="F5">
-        <v>60.34907897728529</v>
+        <v>21.43668347917321</v>
       </c>
       <c r="G5">
-        <v>1.87920490667592</v>
+        <v>31.74099577495947</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>8.500738049774874</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>66.64203978538251</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.39126991226239</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>6.582639568617997</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
       <c r="D6">
-        <v>8.896139175633797</v>
+        <v>2.085850470997539</v>
       </c>
       <c r="E6">
-        <v>28.52413399469049</v>
+        <v>26.47421094918231</v>
       </c>
       <c r="F6">
-        <v>60.03364584161876</v>
+        <v>21.35651048323103</v>
       </c>
       <c r="G6">
-        <v>1.881264030474093</v>
+        <v>31.62130859795602</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>8.480948870500034</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>66.34971325768895</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.32917232608427</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>6.695228782993958</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
       <c r="D7">
-        <v>9.270676745026734</v>
+        <v>2.097397873411621</v>
       </c>
       <c r="E7">
-        <v>29.52444032695879</v>
+        <v>27.18164958784454</v>
       </c>
       <c r="F7">
-        <v>62.23868142874075</v>
+        <v>21.90816793603162</v>
       </c>
       <c r="G7">
-        <v>1.866814641648246</v>
+        <v>32.44482986447203</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>8.617983529212031</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>68.37827579578861</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.7563518344862</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>7.185265214939641</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
-        <v>11.05170182137858</v>
+        <v>2.149716748705445</v>
       </c>
       <c r="E8">
-        <v>34.17244510104263</v>
+        <v>30.16295003140153</v>
       </c>
       <c r="F8">
-        <v>72.58613880080948</v>
+        <v>24.2237335680124</v>
       </c>
       <c r="G8">
-        <v>1.79722828698365</v>
+        <v>35.90121885208334</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>9.213688181180595</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>77.46096003921382</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
       <c r="O8">
-        <v>0</v>
+        <v>18.54723507259015</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>16.66206239670111</v>
+        <v>2.257524162052344</v>
       </c>
       <c r="E9">
-        <v>48.26101999382639</v>
+        <v>35.53565962533065</v>
       </c>
       <c r="F9">
-        <v>103.3802113722583</v>
+        <v>28.3474579809924</v>
       </c>
       <c r="G9">
-        <v>1.571345927093097</v>
+        <v>42.05837224899967</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>10.41351275112121</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
       <c r="O9">
-        <v>0</v>
+        <v>21.73142598679816</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>16.66206239670111</v>
+        <v>2.34042422738534</v>
       </c>
       <c r="E10">
-        <v>48.26101999382639</v>
+        <v>39.22824871429453</v>
       </c>
       <c r="F10">
-        <v>103.3802113722583</v>
+        <v>31.13496510759984</v>
       </c>
       <c r="G10">
-        <v>1.571345927093097</v>
+        <v>46.22402828101346</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>11.44107768786064</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
-        <v>0</v>
+        <v>23.88264235483551</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
       <c r="D11">
-        <v>16.66206239670111</v>
+        <v>2.379119748423779</v>
       </c>
       <c r="E11">
-        <v>48.26101999382639</v>
+        <v>40.86164182526883</v>
       </c>
       <c r="F11">
-        <v>103.3802113722583</v>
+        <v>32.35376212928516</v>
       </c>
       <c r="G11">
-        <v>1.571345927093097</v>
+        <v>48.04676179419454</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>11.89110708767763</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
-        <v>0</v>
+        <v>24.82335668339965</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
       <c r="D12">
-        <v>16.66206239670111</v>
+        <v>2.393935072878446</v>
       </c>
       <c r="E12">
-        <v>48.26101999382639</v>
+        <v>41.4743607172251</v>
       </c>
       <c r="F12">
-        <v>103.3802113722583</v>
+        <v>32.80852459811586</v>
       </c>
       <c r="G12">
-        <v>1.571345927093097</v>
+        <v>48.72711522221351</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>12.05913950096484</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
-        <v>0</v>
+        <v>25.17441048528584</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
       <c r="D13">
-        <v>16.66206239670111</v>
+        <v>2.390736723125535</v>
       </c>
       <c r="E13">
-        <v>48.26101999382639</v>
+        <v>41.34264413774059</v>
       </c>
       <c r="F13">
-        <v>103.3802113722583</v>
+        <v>32.71087897672275</v>
       </c>
       <c r="G13">
-        <v>1.571345927093097</v>
+        <v>48.58101927261097</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>12.0230546261047</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
-        <v>0</v>
+        <v>25.09903017264224</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
       <c r="D14">
-        <v>16.66206239670111</v>
+        <v>2.380335224761629</v>
       </c>
       <c r="E14">
-        <v>48.26101999382639</v>
+        <v>40.9121616686357</v>
       </c>
       <c r="F14">
-        <v>103.3802113722583</v>
+        <v>32.3913094307884</v>
       </c>
       <c r="G14">
-        <v>1.571345927093097</v>
+        <v>48.10292962939929</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>11.90497823817981</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
-        <v>0</v>
+        <v>24.85234010307482</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
       <c r="D15">
-        <v>16.66206239670111</v>
+        <v>2.373985838327831</v>
       </c>
       <c r="E15">
-        <v>48.26101999382639</v>
+        <v>40.64774956817494</v>
       </c>
       <c r="F15">
-        <v>103.3802113722583</v>
+        <v>32.19469231260057</v>
       </c>
       <c r="G15">
-        <v>1.571345927093097</v>
+        <v>47.80881614164682</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>11.83234646593346</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
-        <v>0</v>
+        <v>24.70057016333871</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
-        <v>16.66206239670111</v>
+        <v>2.3379168235528</v>
       </c>
       <c r="E16">
-        <v>48.26101999382639</v>
+        <v>39.12063977260127</v>
       </c>
       <c r="F16">
-        <v>103.3802113722583</v>
+        <v>31.05434852460082</v>
       </c>
       <c r="G16">
-        <v>1.571345927093097</v>
+        <v>46.10349687584602</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>11.41132664437744</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
       <c r="O16">
-        <v>0</v>
+        <v>23.8204247453241</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
-        <v>16.66206239670111</v>
+        <v>2.316054643615762</v>
       </c>
       <c r="E17">
-        <v>48.26101999382639</v>
+        <v>38.17249920501032</v>
       </c>
       <c r="F17">
-        <v>103.3802113722583</v>
+        <v>30.34237880283521</v>
       </c>
       <c r="G17">
-        <v>1.571345927093097</v>
+        <v>45.03917876416308</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>11.14866417013892</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
       <c r="O17">
-        <v>0</v>
+        <v>23.27096516431293</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
       <c r="D18">
-        <v>16.66206239670111</v>
+        <v>2.303571160301914</v>
       </c>
       <c r="E18">
-        <v>48.26101999382639</v>
+        <v>37.62272973925779</v>
       </c>
       <c r="F18">
-        <v>103.3802113722583</v>
+        <v>29.92821543463626</v>
       </c>
       <c r="G18">
-        <v>1.571345927093097</v>
+        <v>44.4201766690269</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>10.99594023617807</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
       <c r="O18">
-        <v>0</v>
+        <v>22.95134644814265</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
       <c r="D19">
-        <v>16.66206239670111</v>
+        <v>2.299359566841213</v>
       </c>
       <c r="E19">
-        <v>48.26101999382639</v>
+        <v>37.43580326788923</v>
       </c>
       <c r="F19">
-        <v>103.3802113722583</v>
+        <v>29.78717810882443</v>
       </c>
       <c r="G19">
-        <v>1.571345927093097</v>
+        <v>44.20940485025159</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>10.94394421608377</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
       <c r="O19">
-        <v>0</v>
+        <v>22.84250567085697</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
       <c r="D20">
-        <v>16.66206239670111</v>
+        <v>2.318372353107883</v>
       </c>
       <c r="E20">
-        <v>48.26101999382639</v>
+        <v>38.27388244696784</v>
       </c>
       <c r="F20">
-        <v>103.3802113722583</v>
+        <v>30.41864906823036</v>
       </c>
       <c r="G20">
-        <v>1.571345927093097</v>
+        <v>45.15318108972116</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>11.17679472735958</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
       <c r="O20">
-        <v>0</v>
+        <v>23.3298251397461</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
       <c r="D21">
-        <v>16.66206239670111</v>
+        <v>2.383385801990184</v>
       </c>
       <c r="E21">
-        <v>48.26101999382639</v>
+        <v>41.03875504055196</v>
       </c>
       <c r="F21">
-        <v>103.3802113722583</v>
+        <v>32.48535575957723</v>
       </c>
       <c r="G21">
-        <v>1.571345927093097</v>
+        <v>48.24361975219625</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>11.93972378429003</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
-        <v>0</v>
+        <v>24.92493703555131</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
       <c r="D22">
-        <v>16.66206239670111</v>
+        <v>2.426835124663593</v>
       </c>
       <c r="E22">
-        <v>48.26101999382639</v>
+        <v>42.81238247140254</v>
       </c>
       <c r="F22">
-        <v>103.3802113722583</v>
+        <v>33.79678858749872</v>
       </c>
       <c r="G22">
-        <v>1.571345927093097</v>
+        <v>50.20612434330766</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>12.42451617693132</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
-        <v>0</v>
+        <v>25.9374278696955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
-        <v>16.66206239670111</v>
+        <v>2.403549218514478</v>
       </c>
       <c r="E23">
-        <v>48.26101999382639</v>
+        <v>41.86849899083175</v>
       </c>
       <c r="F23">
-        <v>103.3802113722583</v>
+        <v>33.10033093101018</v>
       </c>
       <c r="G23">
-        <v>1.571345927093097</v>
+        <v>49.16375132086879</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>12.16699370116515</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23">
-        <v>0</v>
+        <v>25.39968849520768</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
       <c r="D24">
-        <v>16.66206239670111</v>
+        <v>2.317324252194516</v>
       </c>
       <c r="E24">
-        <v>48.26101999382639</v>
+        <v>38.22806169476728</v>
       </c>
       <c r="F24">
-        <v>103.3802113722583</v>
+        <v>30.38418238760744</v>
       </c>
       <c r="G24">
-        <v>1.571345927093097</v>
+        <v>45.10166282666621</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>11.16408225555714</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
       <c r="O24">
-        <v>0</v>
+        <v>23.30322617409376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>8.15941491196889</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
       <c r="D25">
-        <v>16.66206239670111</v>
+        <v>2.227758591924872</v>
       </c>
       <c r="E25">
-        <v>48.26101999382639</v>
+        <v>34.12963562220381</v>
       </c>
       <c r="F25">
-        <v>103.3802113722583</v>
+        <v>27.27540407321635</v>
       </c>
       <c r="G25">
-        <v>1.571345927093097</v>
+        <v>40.4572187545087</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>10.041757576016</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>100.7589017581869</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
       <c r="O25">
-        <v>0</v>
+        <v>20.90398045560054</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.164231686260177</v>
+        <v>3.332866452911979</v>
       </c>
       <c r="E2">
-        <v>30.93755439804214</v>
+        <v>16.74055822901289</v>
       </c>
       <c r="F2">
-        <v>24.82253004437596</v>
+        <v>18.3586991835932</v>
       </c>
       <c r="G2">
-        <v>36.79505295082202</v>
+        <v>21.97987378217732</v>
       </c>
       <c r="H2">
-        <v>9.372623469429769</v>
+        <v>10.62994996385521</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.0099075690521</v>
+        <v>15.51357751095987</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -447,25 +447,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.122519041038432</v>
+        <v>3.331906116541789</v>
       </c>
       <c r="E3">
-        <v>28.65423867999856</v>
+        <v>15.77358072534923</v>
       </c>
       <c r="F3">
-        <v>23.05394107770012</v>
+        <v>17.85750361967088</v>
       </c>
       <c r="G3">
-        <v>34.15511877210734</v>
+        <v>20.88400046637141</v>
       </c>
       <c r="H3">
-        <v>8.908803315204777</v>
+        <v>10.56398091616973</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.6428938323013</v>
+        <v>15.21194444154729</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -473,25 +473,25 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.097533728375411</v>
+        <v>3.331667210034164</v>
       </c>
       <c r="E4">
-        <v>27.18984927183101</v>
+        <v>15.15375536400613</v>
       </c>
       <c r="F4">
-        <v>21.91455764494753</v>
+        <v>17.54855801098144</v>
       </c>
       <c r="G4">
-        <v>32.45436817138771</v>
+        <v>20.18742174270467</v>
       </c>
       <c r="H4">
-        <v>8.619582511969085</v>
+        <v>10.52596340044021</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.7612983684433</v>
+        <v>15.02856969616993</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -499,25 +499,25 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.087506276006411</v>
+        <v>3.331658326440736</v>
       </c>
       <c r="E5">
-        <v>26.57696618080705</v>
+        <v>14.89487218464951</v>
       </c>
       <c r="F5">
-        <v>21.43668347917321</v>
+        <v>17.42257312030376</v>
       </c>
       <c r="G5">
-        <v>31.74099577495947</v>
+        <v>19.8980169984635</v>
       </c>
       <c r="H5">
-        <v>8.500738049774874</v>
+        <v>10.51110920613299</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.39126991226239</v>
+        <v>14.95441454222162</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -525,25 +525,25 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>2.085850470997539</v>
+        <v>3.331662202570367</v>
       </c>
       <c r="E6">
-        <v>26.47421094918231</v>
+        <v>14.85151310981643</v>
       </c>
       <c r="F6">
-        <v>21.35651048323103</v>
+        <v>17.40165469098881</v>
       </c>
       <c r="G6">
-        <v>31.62130859795602</v>
+        <v>19.84964027438432</v>
       </c>
       <c r="H6">
-        <v>8.480948870500034</v>
+        <v>10.50868157673871</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.32917232608427</v>
+        <v>14.9421389230355</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -551,25 +551,25 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>2.097397873411621</v>
+        <v>3.331666731627135</v>
       </c>
       <c r="E7">
-        <v>27.18164958784454</v>
+        <v>15.1502890936753</v>
       </c>
       <c r="F7">
-        <v>21.90816793603162</v>
+        <v>17.54685899359077</v>
       </c>
       <c r="G7">
-        <v>32.44482986447203</v>
+        <v>20.1835405728957</v>
       </c>
       <c r="H7">
-        <v>8.617983529212031</v>
+        <v>10.52576047143518</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.7563518344862</v>
+        <v>15.02756715204569</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -577,25 +577,25 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>2.149716748705445</v>
+        <v>3.332462701585336</v>
       </c>
       <c r="E8">
-        <v>30.16295003140153</v>
+        <v>16.4127029344815</v>
       </c>
       <c r="F8">
-        <v>24.2237335680124</v>
+        <v>18.18626524397516</v>
       </c>
       <c r="G8">
-        <v>35.90121885208334</v>
+        <v>21.60716863689968</v>
       </c>
       <c r="H8">
-        <v>9.213688181180595</v>
+        <v>10.60669544107147</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.54723507259015</v>
+        <v>15.40926152103459</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -603,25 +603,25 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>2.257524162052344</v>
+        <v>3.336794265068177</v>
       </c>
       <c r="E9">
-        <v>35.53565962533065</v>
+        <v>18.83526645892443</v>
       </c>
       <c r="F9">
-        <v>28.3474579809924</v>
+        <v>19.42152583551498</v>
       </c>
       <c r="G9">
-        <v>42.05837224899967</v>
+        <v>24.19549305282733</v>
       </c>
       <c r="H9">
-        <v>10.41351275112121</v>
+        <v>10.78454097625014</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.73142598679816</v>
+        <v>16.1674281179029</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -629,25 +629,25 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>2.34042422738534</v>
+        <v>3.341648870266812</v>
       </c>
       <c r="E10">
-        <v>39.22824871429453</v>
+        <v>20.5158063941146</v>
       </c>
       <c r="F10">
-        <v>31.13496510759984</v>
+        <v>20.30649208104569</v>
       </c>
       <c r="G10">
-        <v>46.22402828101346</v>
+        <v>25.9564039169725</v>
       </c>
       <c r="H10">
-        <v>11.44107768786064</v>
+        <v>10.92598972804871</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.88264235483551</v>
+        <v>16.72400890826518</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -655,25 +655,25 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>2.379119748423779</v>
+        <v>3.344216520351168</v>
       </c>
       <c r="E11">
-        <v>40.86164182526883</v>
+        <v>21.23749084471423</v>
       </c>
       <c r="F11">
-        <v>32.35376212928516</v>
+        <v>20.70207008789821</v>
       </c>
       <c r="G11">
-        <v>48.04676179419454</v>
+        <v>26.72430725654523</v>
       </c>
       <c r="H11">
-        <v>11.89110708767763</v>
+        <v>10.99247610726912</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.82335668339965</v>
+        <v>16.97584131324035</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -681,25 +681,25 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>2.393935072878446</v>
+        <v>3.345240104828352</v>
       </c>
       <c r="E12">
-        <v>41.4743607172251</v>
+        <v>21.50465745367271</v>
       </c>
       <c r="F12">
-        <v>32.80852459811586</v>
+        <v>20.85070168403503</v>
       </c>
       <c r="G12">
-        <v>48.72711522221351</v>
+        <v>27.01015662864139</v>
       </c>
       <c r="H12">
-        <v>12.05913950096484</v>
+        <v>11.01794236505452</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.17441048528584</v>
+        <v>17.07090818264912</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -707,25 +707,25 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>2.390736723125535</v>
+        <v>3.34501738373661</v>
       </c>
       <c r="E13">
-        <v>41.34264413774059</v>
+        <v>21.44738995832759</v>
       </c>
       <c r="F13">
-        <v>32.71087897672275</v>
+        <v>20.81874541673819</v>
       </c>
       <c r="G13">
-        <v>48.58101927261097</v>
+        <v>26.94881594057337</v>
       </c>
       <c r="H13">
-        <v>12.0230546261047</v>
+        <v>11.01244518410014</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.09903017264224</v>
+        <v>17.05044857741605</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -733,25 +733,25 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>2.380335224761629</v>
+        <v>3.344299706018385</v>
       </c>
       <c r="E14">
-        <v>40.9121616686357</v>
+        <v>21.25959324810562</v>
       </c>
       <c r="F14">
-        <v>32.3913094307884</v>
+        <v>20.71432231239456</v>
       </c>
       <c r="G14">
-        <v>48.10292962939929</v>
+        <v>26.74792412138484</v>
       </c>
       <c r="H14">
-        <v>11.90497823817981</v>
+        <v>10.99456554138557</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.85234010307482</v>
+        <v>16.9836690268625</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -759,25 +759,25 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>2.373985838327831</v>
+        <v>3.343866772780873</v>
       </c>
       <c r="E15">
-        <v>40.64774956817494</v>
+        <v>21.14376642488968</v>
       </c>
       <c r="F15">
-        <v>32.19469231260057</v>
+        <v>20.65020392082526</v>
       </c>
       <c r="G15">
-        <v>47.80881614164682</v>
+        <v>26.62422428068378</v>
       </c>
       <c r="H15">
-        <v>11.83234646593346</v>
+        <v>10.98365086186755</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.70057016333871</v>
+        <v>16.94272308504471</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -785,25 +785,25 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>2.3379168235528</v>
+        <v>3.341488264673332</v>
       </c>
       <c r="E16">
-        <v>39.12063977260127</v>
+        <v>20.46778435323411</v>
       </c>
       <c r="F16">
-        <v>31.05434852460082</v>
+        <v>20.28048541154646</v>
       </c>
       <c r="G16">
-        <v>46.10349687584602</v>
+        <v>25.90553718702318</v>
       </c>
       <c r="H16">
-        <v>11.41132664437744</v>
+        <v>10.921686192136</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.8204247453241</v>
+        <v>16.70751495472316</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -811,25 +811,25 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>2.316054643615762</v>
+        <v>3.340120871657708</v>
       </c>
       <c r="E17">
-        <v>38.17249920501032</v>
+        <v>20.04215383634668</v>
       </c>
       <c r="F17">
-        <v>30.34237880283521</v>
+        <v>20.05176529754217</v>
       </c>
       <c r="G17">
-        <v>45.03917876416308</v>
+        <v>25.45602378938267</v>
       </c>
       <c r="H17">
-        <v>11.14866417013892</v>
+        <v>10.88420815208811</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.27096516431293</v>
+        <v>16.56280069720596</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -837,25 +837,25 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>2.303571160301914</v>
+        <v>3.339368223788727</v>
       </c>
       <c r="E18">
-        <v>37.62272973925779</v>
+        <v>19.79331164051829</v>
       </c>
       <c r="F18">
-        <v>29.92821543463626</v>
+        <v>19.91956150706801</v>
       </c>
       <c r="G18">
-        <v>44.4201766690269</v>
+        <v>25.19436406922756</v>
       </c>
       <c r="H18">
-        <v>10.99594023617807</v>
+        <v>10.86285440835428</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.95134644814265</v>
+        <v>16.47944270756333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -863,25 +863,25 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>2.299359566841213</v>
+        <v>3.339119213877981</v>
       </c>
       <c r="E19">
-        <v>37.43580326788923</v>
+        <v>19.70836458320049</v>
       </c>
       <c r="F19">
-        <v>29.78717810882443</v>
+        <v>19.87469300417123</v>
       </c>
       <c r="G19">
-        <v>44.20940485025159</v>
+        <v>25.10524197005103</v>
       </c>
       <c r="H19">
-        <v>10.94394421608377</v>
+        <v>10.85565975489257</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.84250567085697</v>
+        <v>16.45120130807224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -889,25 +889,25 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>2.318372353107883</v>
+        <v>3.340262933356759</v>
       </c>
       <c r="E20">
-        <v>38.27388244696784</v>
+        <v>20.08787984548768</v>
       </c>
       <c r="F20">
-        <v>30.41864906823036</v>
+        <v>20.07618141573259</v>
       </c>
       <c r="G20">
-        <v>45.15318108972116</v>
+        <v>25.50419863862301</v>
       </c>
       <c r="H20">
-        <v>11.17679472735958</v>
+        <v>10.88817691407267</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.3298251397461</v>
+        <v>16.57821917134397</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -915,25 +915,25 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>2.383385801990184</v>
+        <v>3.344509117089498</v>
       </c>
       <c r="E21">
-        <v>41.03875504055196</v>
+        <v>21.31491949976725</v>
       </c>
       <c r="F21">
-        <v>32.48535575957723</v>
+        <v>20.74502673075179</v>
       </c>
       <c r="G21">
-        <v>48.24361975219625</v>
+        <v>26.80706618550233</v>
       </c>
       <c r="H21">
-        <v>11.93972378429003</v>
+        <v>10.99980952428331</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.92493703555131</v>
+        <v>17.00329262939371</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -941,25 +941,25 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>2.426835124663593</v>
+        <v>3.347582896093317</v>
       </c>
       <c r="E22">
-        <v>42.81238247140254</v>
+        <v>22.08120714169241</v>
       </c>
       <c r="F22">
-        <v>33.79678858749872</v>
+        <v>21.17530009767941</v>
       </c>
       <c r="G22">
-        <v>50.20612434330766</v>
+        <v>27.62971804028941</v>
       </c>
       <c r="H22">
-        <v>12.42451617693132</v>
+        <v>11.07444526050036</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.9374278696955</v>
+        <v>17.27933077334006</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -967,25 +967,25 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>2.403549218514478</v>
+        <v>3.345915169710981</v>
       </c>
       <c r="E23">
-        <v>41.86849899083175</v>
+        <v>21.67547574966464</v>
       </c>
       <c r="F23">
-        <v>33.10033093101018</v>
+        <v>20.94633133725009</v>
       </c>
       <c r="G23">
-        <v>49.16375132086879</v>
+        <v>27.19334216298972</v>
       </c>
       <c r="H23">
-        <v>12.16699370116515</v>
+        <v>11.03446353276822</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.39968849520768</v>
+        <v>17.1321982015476</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -993,25 +993,25 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>2.317324252194516</v>
+        <v>3.340198602956227</v>
       </c>
       <c r="E24">
-        <v>38.22806169476728</v>
+        <v>20.06722001980251</v>
       </c>
       <c r="F24">
-        <v>30.38418238760744</v>
+        <v>20.06514508651023</v>
       </c>
       <c r="G24">
-        <v>45.10166282666621</v>
+        <v>25.48242883184157</v>
       </c>
       <c r="H24">
-        <v>11.16408225555714</v>
+        <v>10.88638203454042</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.30322617409376</v>
+        <v>16.57124896922865</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1019,25 +1019,25 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>2.227758591924872</v>
+        <v>3.335327506432642</v>
       </c>
       <c r="E25">
-        <v>34.12963562220381</v>
+        <v>18.17820302606692</v>
       </c>
       <c r="F25">
-        <v>27.27540407321635</v>
+        <v>19.09055749939828</v>
       </c>
       <c r="G25">
-        <v>40.4572187545087</v>
+        <v>23.51897299350301</v>
       </c>
       <c r="H25">
-        <v>10.041757576016</v>
+        <v>10.73446794358163</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.90398045560054</v>
+        <v>15.96195547730651</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.332866452911979</v>
+        <v>2.164231686260125</v>
       </c>
       <c r="E2">
-        <v>16.74055822901289</v>
+        <v>30.93755439804207</v>
       </c>
       <c r="F2">
-        <v>18.3586991835932</v>
+        <v>24.82253004437595</v>
       </c>
       <c r="G2">
-        <v>21.97987378217732</v>
+        <v>36.79505295082199</v>
       </c>
       <c r="H2">
-        <v>10.62994996385521</v>
+        <v>9.37262346942979</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.51357751095987</v>
+        <v>19.00990756905207</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -447,25 +447,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3.331906116541789</v>
+        <v>2.122519041038391</v>
       </c>
       <c r="E3">
-        <v>15.77358072534923</v>
+        <v>28.65423867999857</v>
       </c>
       <c r="F3">
-        <v>17.85750361967088</v>
+        <v>23.05394107770015</v>
       </c>
       <c r="G3">
-        <v>20.88400046637141</v>
+        <v>34.15511877210735</v>
       </c>
       <c r="H3">
-        <v>10.56398091616973</v>
+        <v>8.908803315204798</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.21194444154729</v>
+        <v>17.64289383230129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -473,25 +473,25 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>3.331667210034164</v>
+        <v>2.097533728375407</v>
       </c>
       <c r="E4">
-        <v>15.15375536400613</v>
+        <v>27.18984927183102</v>
       </c>
       <c r="F4">
-        <v>17.54855801098144</v>
+        <v>21.91455764494753</v>
       </c>
       <c r="G4">
-        <v>20.18742174270467</v>
+        <v>32.45436817138769</v>
       </c>
       <c r="H4">
-        <v>10.52596340044021</v>
+        <v>8.619582511969085</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.02856969616993</v>
+        <v>16.76129836844328</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -499,25 +499,25 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>3.331658326440736</v>
+        <v>2.08750627600629</v>
       </c>
       <c r="E5">
-        <v>14.89487218464951</v>
+        <v>26.57696618080711</v>
       </c>
       <c r="F5">
-        <v>17.42257312030376</v>
+        <v>21.43668347917324</v>
       </c>
       <c r="G5">
-        <v>19.8980169984635</v>
+        <v>31.74099577495946</v>
       </c>
       <c r="H5">
-        <v>10.51110920613299</v>
+        <v>8.500738049774863</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.95441454222162</v>
+        <v>16.39126991226241</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -525,25 +525,25 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>3.331662202570367</v>
+        <v>2.085850470997472</v>
       </c>
       <c r="E6">
-        <v>14.85151310981643</v>
+        <v>26.47421094918223</v>
       </c>
       <c r="F6">
-        <v>17.40165469098881</v>
+        <v>21.35651048323102</v>
       </c>
       <c r="G6">
-        <v>19.84964027438432</v>
+        <v>31.62130859795605</v>
       </c>
       <c r="H6">
-        <v>10.50868157673871</v>
+        <v>8.480948870500084</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.9421389230355</v>
+        <v>16.32917232608427</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -551,25 +551,25 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>3.331666731627135</v>
+        <v>2.097397873411633</v>
       </c>
       <c r="E7">
-        <v>15.1502890936753</v>
+        <v>27.18164958784454</v>
       </c>
       <c r="F7">
-        <v>17.54685899359077</v>
+        <v>21.90816793603164</v>
       </c>
       <c r="G7">
-        <v>20.1835405728957</v>
+        <v>32.44482986447205</v>
       </c>
       <c r="H7">
-        <v>10.52576047143518</v>
+        <v>8.617983529212024</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.02756715204569</v>
+        <v>16.7563518344862</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -577,25 +577,25 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>3.332462701585336</v>
+        <v>2.149716748705449</v>
       </c>
       <c r="E8">
-        <v>16.4127029344815</v>
+        <v>30.16295003140154</v>
       </c>
       <c r="F8">
-        <v>18.18626524397516</v>
+        <v>24.22373356801236</v>
       </c>
       <c r="G8">
-        <v>21.60716863689968</v>
+        <v>35.90121885208332</v>
       </c>
       <c r="H8">
-        <v>10.60669544107147</v>
+        <v>9.213688181180601</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.40926152103459</v>
+        <v>18.54723507259012</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -603,25 +603,25 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>3.336794265068177</v>
+        <v>2.257524162052245</v>
       </c>
       <c r="E9">
-        <v>18.83526645892443</v>
+        <v>35.53565962533071</v>
       </c>
       <c r="F9">
-        <v>19.42152583551498</v>
+        <v>28.34745798099241</v>
       </c>
       <c r="G9">
-        <v>24.19549305282733</v>
+        <v>42.05837224899962</v>
       </c>
       <c r="H9">
-        <v>10.78454097625014</v>
+        <v>10.41351275112119</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.1674281179029</v>
+        <v>21.73142598679815</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -629,25 +629,25 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>3.341648870266812</v>
+        <v>2.340424227385236</v>
       </c>
       <c r="E10">
-        <v>20.5158063941146</v>
+        <v>39.22824871429454</v>
       </c>
       <c r="F10">
-        <v>20.30649208104569</v>
+        <v>31.13496510759995</v>
       </c>
       <c r="G10">
-        <v>25.9564039169725</v>
+        <v>46.22402828101369</v>
       </c>
       <c r="H10">
-        <v>10.92598972804871</v>
+        <v>11.44107768786064</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.72400890826518</v>
+        <v>23.88264235483557</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -655,25 +655,25 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>3.344216520351168</v>
+        <v>2.379119748423815</v>
       </c>
       <c r="E11">
-        <v>21.23749084471423</v>
+        <v>40.86164182526884</v>
       </c>
       <c r="F11">
-        <v>20.70207008789821</v>
+        <v>32.35376212928512</v>
       </c>
       <c r="G11">
-        <v>26.72430725654523</v>
+        <v>48.04676179419456</v>
       </c>
       <c r="H11">
-        <v>10.99247610726912</v>
+        <v>11.89110708767761</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.97584131324035</v>
+        <v>24.82335668339962</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -681,25 +681,25 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>3.345240104828352</v>
+        <v>2.393935072878462</v>
       </c>
       <c r="E12">
-        <v>21.50465745367271</v>
+        <v>41.4743607172252</v>
       </c>
       <c r="F12">
-        <v>20.85070168403503</v>
+        <v>32.80852459811586</v>
       </c>
       <c r="G12">
-        <v>27.01015662864139</v>
+        <v>48.72711522221346</v>
       </c>
       <c r="H12">
-        <v>11.01794236505452</v>
+        <v>12.05913950096483</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.07090818264912</v>
+        <v>25.17441048528584</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -707,25 +707,25 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>3.34501738373661</v>
+        <v>2.390736723125473</v>
       </c>
       <c r="E13">
-        <v>21.44738995832759</v>
+        <v>41.34264413774048</v>
       </c>
       <c r="F13">
-        <v>20.81874541673819</v>
+        <v>32.7108789767227</v>
       </c>
       <c r="G13">
-        <v>26.94881594057337</v>
+        <v>48.58101927261083</v>
       </c>
       <c r="H13">
-        <v>11.01244518410014</v>
+        <v>12.02305462610471</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.05044857741605</v>
+        <v>25.09903017264222</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -733,25 +733,25 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>3.344299706018385</v>
+        <v>2.380335224761629</v>
       </c>
       <c r="E14">
-        <v>21.25959324810562</v>
+        <v>40.9121616686357</v>
       </c>
       <c r="F14">
-        <v>20.71432231239456</v>
+        <v>32.3913094307884</v>
       </c>
       <c r="G14">
-        <v>26.74792412138484</v>
+        <v>48.10292962939936</v>
       </c>
       <c r="H14">
-        <v>10.99456554138557</v>
+        <v>11.90497823817983</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.9836690268625</v>
+        <v>24.85234010307483</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -759,25 +759,25 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>3.343866772780873</v>
+        <v>2.373985838327831</v>
       </c>
       <c r="E15">
-        <v>21.14376642488968</v>
+        <v>40.647749568175</v>
       </c>
       <c r="F15">
-        <v>20.65020392082526</v>
+        <v>32.19469231260057</v>
       </c>
       <c r="G15">
-        <v>26.62422428068378</v>
+        <v>47.80881614164677</v>
       </c>
       <c r="H15">
-        <v>10.98365086186755</v>
+        <v>11.83234646593349</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.94272308504471</v>
+        <v>24.70057016333871</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -785,25 +785,25 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>3.341488264673332</v>
+        <v>2.337916823552737</v>
       </c>
       <c r="E16">
-        <v>20.46778435323411</v>
+        <v>39.12063977260127</v>
       </c>
       <c r="F16">
-        <v>20.28048541154646</v>
+        <v>31.05434852460081</v>
       </c>
       <c r="G16">
-        <v>25.90553718702318</v>
+        <v>46.103496875846</v>
       </c>
       <c r="H16">
-        <v>10.921686192136</v>
+        <v>11.41132664437745</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.70751495472316</v>
+        <v>23.82042474532409</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -811,25 +811,25 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>3.340120871657708</v>
+        <v>2.316054643615756</v>
       </c>
       <c r="E17">
-        <v>20.04215383634668</v>
+        <v>38.17249920501022</v>
       </c>
       <c r="F17">
-        <v>20.05176529754217</v>
+        <v>30.34237880283517</v>
       </c>
       <c r="G17">
-        <v>25.45602378938267</v>
+        <v>45.03917876416303</v>
       </c>
       <c r="H17">
-        <v>10.88420815208811</v>
+        <v>11.14866417013892</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.56280069720596</v>
+        <v>23.2709651643129</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -837,25 +837,25 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>3.339368223788727</v>
+        <v>2.303571160301793</v>
       </c>
       <c r="E18">
-        <v>19.79331164051829</v>
+        <v>37.62272973925781</v>
       </c>
       <c r="F18">
-        <v>19.91956150706801</v>
+        <v>29.92821543463631</v>
       </c>
       <c r="G18">
-        <v>25.19436406922756</v>
+        <v>44.42017666902694</v>
       </c>
       <c r="H18">
-        <v>10.86285440835428</v>
+        <v>10.99594023617807</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.47944270756333</v>
+        <v>22.95134644814269</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -863,25 +863,25 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>3.339119213877981</v>
+        <v>2.299359566841313</v>
       </c>
       <c r="E19">
-        <v>19.70836458320049</v>
+        <v>37.43580326788919</v>
       </c>
       <c r="F19">
-        <v>19.87469300417123</v>
+        <v>29.78717810882441</v>
       </c>
       <c r="G19">
-        <v>25.10524197005103</v>
+        <v>44.20940485025153</v>
       </c>
       <c r="H19">
-        <v>10.85565975489257</v>
+        <v>10.94394421608377</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.45120130807224</v>
+        <v>22.84250567085696</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -889,25 +889,25 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>3.340262933356759</v>
+        <v>2.318372353107888</v>
       </c>
       <c r="E20">
-        <v>20.08787984548768</v>
+        <v>38.27388244696781</v>
       </c>
       <c r="F20">
-        <v>20.07618141573259</v>
+        <v>30.41864906823042</v>
       </c>
       <c r="G20">
-        <v>25.50419863862301</v>
+        <v>45.15318108972122</v>
       </c>
       <c r="H20">
-        <v>10.88817691407267</v>
+        <v>11.17679472735959</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.57821917134397</v>
+        <v>23.32982513974613</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -915,25 +915,25 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>3.344509117089498</v>
+        <v>2.383385801990138</v>
       </c>
       <c r="E21">
-        <v>21.31491949976725</v>
+        <v>41.03875504055196</v>
       </c>
       <c r="F21">
-        <v>20.74502673075179</v>
+        <v>32.48535575957728</v>
       </c>
       <c r="G21">
-        <v>26.80706618550233</v>
+        <v>48.24361975219627</v>
       </c>
       <c r="H21">
-        <v>10.99980952428331</v>
+        <v>11.93972378429002</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.00329262939371</v>
+        <v>24.92493703555134</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -941,25 +941,25 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>3.347582896093317</v>
+        <v>2.426835124663558</v>
       </c>
       <c r="E22">
-        <v>22.08120714169241</v>
+        <v>42.81238247140248</v>
       </c>
       <c r="F22">
-        <v>21.17530009767941</v>
+        <v>33.79678858749871</v>
       </c>
       <c r="G22">
-        <v>27.62971804028941</v>
+        <v>50.2061243433076</v>
       </c>
       <c r="H22">
-        <v>11.07444526050036</v>
+        <v>12.42451617693131</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.27933077334006</v>
+        <v>25.9374278696955</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -967,25 +967,25 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>3.345915169710981</v>
+        <v>2.403549218514365</v>
       </c>
       <c r="E23">
-        <v>21.67547574966464</v>
+        <v>41.86849899083154</v>
       </c>
       <c r="F23">
-        <v>20.94633133725009</v>
+        <v>33.10033093101022</v>
       </c>
       <c r="G23">
-        <v>27.19334216298972</v>
+        <v>49.16375132086883</v>
       </c>
       <c r="H23">
-        <v>11.03446353276822</v>
+        <v>12.16699370116517</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.1321982015476</v>
+        <v>25.39968849520769</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -993,25 +993,25 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>3.340198602956227</v>
+        <v>2.317324252194395</v>
       </c>
       <c r="E24">
-        <v>20.06722001980251</v>
+        <v>38.22806169476723</v>
       </c>
       <c r="F24">
-        <v>20.06514508651023</v>
+        <v>30.38418238760741</v>
       </c>
       <c r="G24">
-        <v>25.48242883184157</v>
+        <v>45.10166282666623</v>
       </c>
       <c r="H24">
-        <v>10.88638203454042</v>
+        <v>11.16408225555712</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.57124896922865</v>
+        <v>23.30322617409374</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1019,25 +1019,25 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>3.335327506432642</v>
+        <v>2.227758591924818</v>
       </c>
       <c r="E25">
-        <v>18.17820302606692</v>
+        <v>34.12963562220379</v>
       </c>
       <c r="F25">
-        <v>19.09055749939828</v>
+        <v>27.2754040732164</v>
       </c>
       <c r="G25">
-        <v>23.51897299350301</v>
+        <v>40.45721875450871</v>
       </c>
       <c r="H25">
-        <v>10.73446794358163</v>
+        <v>10.04175757601599</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.96195547730651</v>
+        <v>20.90398045560057</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,629 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>6.228383742921554</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
       <c r="D2">
-        <v>2.164231686260125</v>
+        <v>3.760380371241682</v>
       </c>
       <c r="E2">
-        <v>30.93755439804207</v>
+        <v>29.16297683838512</v>
       </c>
       <c r="F2">
-        <v>24.82253004437595</v>
+        <v>25.38100468720434</v>
       </c>
       <c r="G2">
-        <v>36.79505295082199</v>
+        <v>36.01005428062462</v>
       </c>
       <c r="H2">
-        <v>9.37262346942979</v>
+        <v>3.12694490898461</v>
+      </c>
+      <c r="I2">
+        <v>3.424722696696702</v>
       </c>
       <c r="J2">
+        <v>11.15364257229897</v>
+      </c>
+      <c r="K2">
+        <v>14.59785500986557</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>19.84287009370935</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.00990756905207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>5.854731693917082</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
-        <v>2.122519041038391</v>
+        <v>3.748476786002223</v>
       </c>
       <c r="E3">
-        <v>28.65423867999857</v>
+        <v>27.21485753272972</v>
       </c>
       <c r="F3">
-        <v>23.05394107770015</v>
+        <v>24.31125932733927</v>
       </c>
       <c r="G3">
-        <v>34.15511877210735</v>
+        <v>34.28816556207147</v>
       </c>
       <c r="H3">
-        <v>8.908803315204798</v>
+        <v>2.833190807272698</v>
+      </c>
+      <c r="I3">
+        <v>3.550735444620006</v>
       </c>
       <c r="J3">
+        <v>10.93364511568084</v>
+      </c>
+      <c r="K3">
+        <v>14.81105286209113</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>18.61041084184665</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.64289383230129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>5.608776015069272</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
-        <v>2.097533728375407</v>
+        <v>3.740201472151489</v>
       </c>
       <c r="E4">
-        <v>27.18984927183102</v>
+        <v>25.953178714718</v>
       </c>
       <c r="F4">
-        <v>21.91455764494753</v>
+        <v>23.64446865160973</v>
       </c>
       <c r="G4">
-        <v>32.45436817138769</v>
+        <v>33.20680341103748</v>
       </c>
       <c r="H4">
-        <v>8.619582511969085</v>
+        <v>2.647320862611017</v>
+      </c>
+      <c r="I4">
+        <v>3.631117967011203</v>
       </c>
       <c r="J4">
+        <v>10.80127647257755</v>
+      </c>
+      <c r="K4">
+        <v>14.94252941982474</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>17.81705127360264</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.76129836844328</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>5.494364570318529</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5">
-        <v>2.08750627600629</v>
+        <v>3.737024815224084</v>
       </c>
       <c r="E5">
-        <v>26.57696618080711</v>
+        <v>25.42238291564625</v>
       </c>
       <c r="F5">
-        <v>21.43668347917324</v>
+        <v>23.35555316663925</v>
       </c>
       <c r="G5">
-        <v>31.74099577495946</v>
+        <v>32.73345938324048</v>
       </c>
       <c r="H5">
-        <v>8.500738049774863</v>
+        <v>2.570108943289341</v>
+      </c>
+      <c r="I5">
+        <v>3.667405444576762</v>
       </c>
       <c r="J5">
+        <v>10.74260309531546</v>
+      </c>
+      <c r="K5">
+        <v>14.98832937565433</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>17.49380465394942</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.39126991226241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>5.462834381037612</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
-        <v>2.085850470997472</v>
+        <v>3.737024345543047</v>
       </c>
       <c r="E6">
-        <v>26.47421094918223</v>
+        <v>25.33315497096534</v>
       </c>
       <c r="F6">
-        <v>21.35651048323102</v>
+        <v>23.28911813141112</v>
       </c>
       <c r="G6">
-        <v>31.62130859795605</v>
+        <v>32.62142138641534</v>
       </c>
       <c r="H6">
-        <v>8.480948870500084</v>
+        <v>2.557146431228355</v>
+      </c>
+      <c r="I6">
+        <v>3.677002670002298</v>
       </c>
       <c r="J6">
+        <v>10.72627538173709</v>
+      </c>
+      <c r="K6">
+        <v>14.98630803788636</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>17.45087783935626</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.32917232608427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>5.574440173682568</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="D7">
-        <v>2.097397873411633</v>
+        <v>3.741674360811844</v>
       </c>
       <c r="E7">
-        <v>27.18164958784454</v>
+        <v>25.94586211896991</v>
       </c>
       <c r="F7">
-        <v>21.90816793603164</v>
+        <v>23.59128142592414</v>
       </c>
       <c r="G7">
-        <v>32.44482986447205</v>
+        <v>33.11159840687356</v>
       </c>
       <c r="H7">
-        <v>8.617983529212024</v>
+        <v>2.646141663826065</v>
+      </c>
+      <c r="I7">
+        <v>3.640915541178426</v>
       </c>
       <c r="J7">
+        <v>10.78252912372309</v>
+      </c>
+      <c r="K7">
+        <v>14.91680566234931</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>17.84292365371961</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.7563518344862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>6.062724027749787</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
       <c r="D8">
-        <v>2.149716748705449</v>
+        <v>3.758662181922148</v>
       </c>
       <c r="E8">
-        <v>30.16295003140154</v>
+        <v>28.50453712911162</v>
       </c>
       <c r="F8">
-        <v>24.22373356801236</v>
+        <v>24.95273433698553</v>
       </c>
       <c r="G8">
-        <v>35.90121885208332</v>
+        <v>35.31124579378589</v>
       </c>
       <c r="H8">
-        <v>9.213688181180601</v>
+        <v>3.026609528229674</v>
+      </c>
+      <c r="I8">
+        <v>3.479293094638874</v>
       </c>
       <c r="J8">
+        <v>11.05417270202909</v>
+      </c>
+      <c r="K8">
+        <v>14.63663159978466</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>19.46264700231427</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.54723507259012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>6.941277614848702</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
       <c r="D9">
-        <v>2.257524162052245</v>
+        <v>3.781127158662785</v>
       </c>
       <c r="E9">
-        <v>35.53565962533071</v>
+        <v>33.00783417722399</v>
       </c>
       <c r="F9">
-        <v>28.34745798099241</v>
+        <v>27.6140342194077</v>
       </c>
       <c r="G9">
-        <v>42.05837224899962</v>
+        <v>39.56314462387125</v>
       </c>
       <c r="H9">
-        <v>10.41351275112119</v>
+        <v>3.731142887086831</v>
+      </c>
+      <c r="I9">
+        <v>3.17046904421819</v>
       </c>
       <c r="J9">
+        <v>11.63913087753883</v>
+      </c>
+      <c r="K9">
+        <v>14.13729003537017</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>22.29982955321858</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.73142598679815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>7.531201585808936</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
       <c r="D10">
-        <v>2.340424227385236</v>
+        <v>3.818475440319164</v>
       </c>
       <c r="E10">
-        <v>39.22824871429454</v>
+        <v>35.12714695708512</v>
       </c>
       <c r="F10">
-        <v>31.13496510759995</v>
+        <v>29.21705863385678</v>
       </c>
       <c r="G10">
-        <v>46.22402828101369</v>
+        <v>42.0364936177066</v>
       </c>
       <c r="H10">
-        <v>11.44107768786064</v>
+        <v>4.184933613015609</v>
+      </c>
+      <c r="I10">
+        <v>2.967106560380411</v>
       </c>
       <c r="J10">
+        <v>11.97379075332006</v>
+      </c>
+      <c r="K10">
+        <v>13.7032759837978</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>24.17249587561053</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.88264235483557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>8.068017682603958</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
       <c r="D11">
-        <v>2.379119748423815</v>
+        <v>4.099217746438571</v>
       </c>
       <c r="E11">
-        <v>40.86164182526884</v>
+        <v>28.53367367061618</v>
       </c>
       <c r="F11">
-        <v>32.35376212928512</v>
+        <v>27.58922955746748</v>
       </c>
       <c r="G11">
-        <v>48.04676179419456</v>
+        <v>38.96796021707666</v>
       </c>
       <c r="H11">
-        <v>11.89110708767761</v>
+        <v>4.540744864795882</v>
+      </c>
+      <c r="I11">
+        <v>2.932775265996215</v>
       </c>
       <c r="J11">
+        <v>11.2406942983706</v>
+      </c>
+      <c r="K11">
+        <v>13.07037625155467</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>24.61687140791265</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.82335668339962</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>8.447031991751274</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
-        <v>2.393935072878462</v>
+        <v>4.373450010918948</v>
       </c>
       <c r="E12">
-        <v>41.4743607172252</v>
+        <v>22.57437705323426</v>
       </c>
       <c r="F12">
-        <v>32.80852459811586</v>
+        <v>25.91998170962627</v>
       </c>
       <c r="G12">
-        <v>48.72711522221346</v>
+        <v>35.93696690983459</v>
       </c>
       <c r="H12">
-        <v>12.05913950096483</v>
+        <v>5.332209716965139</v>
+      </c>
+      <c r="I12">
+        <v>2.925206377285725</v>
       </c>
       <c r="J12">
+        <v>10.5694294309632</v>
+      </c>
+      <c r="K12">
+        <v>12.76127075570786</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24.58027547901742</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.17441048528584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>8.700695547158018</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
-        <v>2.390736723125473</v>
+        <v>4.650722313854674</v>
       </c>
       <c r="E13">
-        <v>41.34264413774048</v>
+        <v>16.62920713745657</v>
       </c>
       <c r="F13">
-        <v>32.7108789767227</v>
+        <v>24.01051475136786</v>
       </c>
       <c r="G13">
-        <v>48.58101927261083</v>
+        <v>32.55231440260334</v>
       </c>
       <c r="H13">
-        <v>12.02305462610471</v>
+        <v>6.335776638175364</v>
+      </c>
+      <c r="I13">
+        <v>2.952405739511927</v>
       </c>
       <c r="J13">
+        <v>9.873288744893003</v>
+      </c>
+      <c r="K13">
+        <v>12.64459556664233</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24.20793452651468</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.09903017264222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>8.81807094971599</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14">
-        <v>2.380335224761629</v>
+        <v>4.84865107274098</v>
       </c>
       <c r="E14">
-        <v>40.9121616686357</v>
+        <v>12.53324972056308</v>
       </c>
       <c r="F14">
-        <v>32.3913094307884</v>
+        <v>22.53389941881578</v>
       </c>
       <c r="G14">
-        <v>48.10292962939936</v>
+        <v>29.96228337093282</v>
       </c>
       <c r="H14">
-        <v>11.90497823817983</v>
+        <v>7.124812553511189</v>
+      </c>
+      <c r="I14">
+        <v>2.989563551208011</v>
       </c>
       <c r="J14">
+        <v>9.370786855697112</v>
+      </c>
+      <c r="K14">
+        <v>12.66031575116196</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>23.79964460269785</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.85234010307483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>8.80958703805088</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
-        <v>2.373985838327831</v>
+        <v>4.893824310511379</v>
       </c>
       <c r="E15">
-        <v>40.647749568175</v>
+        <v>11.54265393135573</v>
       </c>
       <c r="F15">
-        <v>32.19469231260057</v>
+        <v>22.10576348931635</v>
       </c>
       <c r="G15">
-        <v>47.80881614164677</v>
+        <v>29.2229693709443</v>
       </c>
       <c r="H15">
-        <v>11.83234646593349</v>
+        <v>7.30561511955116</v>
+      </c>
+      <c r="I15">
+        <v>3.010885069721085</v>
       </c>
       <c r="J15">
+        <v>9.2386135833155</v>
+      </c>
+      <c r="K15">
+        <v>12.69175608333728</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>23.63528348563182</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.70057016333871</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>8.522916335768638</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
-        <v>2.337916823552737</v>
+        <v>4.817061636131792</v>
       </c>
       <c r="E16">
-        <v>39.12063977260127</v>
+        <v>11.35190354843878</v>
       </c>
       <c r="F16">
-        <v>31.05434852460081</v>
+        <v>21.67277588834802</v>
       </c>
       <c r="G16">
-        <v>46.103496875846</v>
+        <v>28.58517072767278</v>
       </c>
       <c r="H16">
-        <v>11.41132664437745</v>
+        <v>7.01478752104446</v>
+      </c>
+      <c r="I16">
+        <v>3.09663962635402</v>
       </c>
       <c r="J16">
+        <v>9.212478394451267</v>
+      </c>
+      <c r="K16">
+        <v>12.88553240285287</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>22.93569991226077</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.82042474532409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>8.230015711615845</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
-        <v>2.316054643615756</v>
+        <v>4.649437117222416</v>
       </c>
       <c r="E17">
-        <v>38.17249920501022</v>
+        <v>13.4330715409453</v>
       </c>
       <c r="F17">
-        <v>30.34237880283517</v>
+        <v>22.15615847516013</v>
       </c>
       <c r="G17">
-        <v>45.03917876416303</v>
+        <v>29.53429419095012</v>
       </c>
       <c r="H17">
-        <v>11.14866417013892</v>
+        <v>6.318297513528819</v>
+      </c>
+      <c r="I17">
+        <v>3.143902424851061</v>
       </c>
       <c r="J17">
+        <v>9.461715320279392</v>
+      </c>
+      <c r="K17">
+        <v>13.01851648540339</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.61542731312048</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.2709651643129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>7.9267193070319</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
-        <v>2.303571160301793</v>
+        <v>4.395674187702661</v>
       </c>
       <c r="E18">
-        <v>37.62272973925781</v>
+        <v>18.0062406311556</v>
       </c>
       <c r="F18">
-        <v>29.92821543463631</v>
+        <v>23.51318591000773</v>
       </c>
       <c r="G18">
-        <v>44.42017666902694</v>
+        <v>32.01333487703604</v>
       </c>
       <c r="H18">
-        <v>10.99594023617807</v>
+        <v>5.281345735365306</v>
+      </c>
+      <c r="I18">
+        <v>3.151238745068662</v>
       </c>
       <c r="J18">
+        <v>9.989562505344642</v>
+      </c>
+      <c r="K18">
+        <v>13.16814524875828</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.57805170129072</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.95134644814269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>7.595043039326965</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
-        <v>2.299359566841313</v>
+        <v>4.127494153933784</v>
       </c>
       <c r="E19">
-        <v>37.43580326788919</v>
+        <v>24.31472641095027</v>
       </c>
       <c r="F19">
-        <v>29.78717810882441</v>
+        <v>25.37757397364888</v>
       </c>
       <c r="G19">
-        <v>44.20940485025153</v>
+        <v>35.36809024030364</v>
       </c>
       <c r="H19">
-        <v>10.94394421608377</v>
+        <v>4.310488739263056</v>
+      </c>
+      <c r="I19">
+        <v>3.141889444265288</v>
       </c>
       <c r="J19">
+        <v>10.67771945768884</v>
+      </c>
+      <c r="K19">
+        <v>13.3759560274995</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22.82491292587179</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.84250567085696</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>7.304042219446933</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
       <c r="D20">
-        <v>2.318372353107888</v>
+        <v>3.816363620709547</v>
       </c>
       <c r="E20">
-        <v>38.27388244696781</v>
+        <v>34.54201784801477</v>
       </c>
       <c r="F20">
-        <v>30.41864906823042</v>
+        <v>28.66211959140395</v>
       </c>
       <c r="G20">
-        <v>45.15318108972122</v>
+        <v>41.15120560324691</v>
       </c>
       <c r="H20">
-        <v>11.17679472735959</v>
+        <v>4.064221661379526</v>
+      </c>
+      <c r="I20">
+        <v>3.050341990401118</v>
       </c>
       <c r="J20">
+        <v>11.83061774731614</v>
+      </c>
+      <c r="K20">
+        <v>13.73716583160636</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>23.76394964845691</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.32982513974613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>7.694304459598683</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
       <c r="D21">
-        <v>2.383385801990138</v>
+        <v>3.803736665965313</v>
       </c>
       <c r="E21">
-        <v>41.03875504055196</v>
+        <v>37.45250705924194</v>
       </c>
       <c r="F21">
-        <v>32.48535575957728</v>
+        <v>30.31568467964006</v>
       </c>
       <c r="G21">
-        <v>48.24361975219627</v>
+        <v>43.79889213313394</v>
       </c>
       <c r="H21">
-        <v>11.93972378429002</v>
+        <v>4.470812457895308</v>
+      </c>
+      <c r="I21">
+        <v>2.885126251159245</v>
       </c>
       <c r="J21">
+        <v>12.25930452646128</v>
+      </c>
+      <c r="K21">
+        <v>13.50397558029527</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>25.20130444549245</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.92493703555134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>7.984366217940055</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
       <c r="D22">
-        <v>2.426835124663558</v>
+        <v>3.80453975915203</v>
       </c>
       <c r="E22">
-        <v>42.81238247140248</v>
+        <v>38.84452953233409</v>
       </c>
       <c r="F22">
-        <v>33.79678858749871</v>
+        <v>31.29325461500627</v>
       </c>
       <c r="G22">
-        <v>50.2061243433076</v>
+        <v>45.34088007918051</v>
       </c>
       <c r="H22">
-        <v>12.42451617693131</v>
+        <v>4.711889019794222</v>
+      </c>
+      <c r="I22">
+        <v>2.769047535143455</v>
       </c>
       <c r="J22">
+        <v>12.51016502623967</v>
+      </c>
+      <c r="K22">
+        <v>13.35724964397519</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>26.05713489561847</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.9374278696955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>7.85914475719835</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
       <c r="D23">
-        <v>2.403549218514365</v>
+        <v>3.801766002607697</v>
       </c>
       <c r="E23">
-        <v>41.86849899083154</v>
+        <v>38.10649098371123</v>
       </c>
       <c r="F23">
-        <v>33.10033093101022</v>
+        <v>30.81743169887126</v>
       </c>
       <c r="G23">
-        <v>49.16375132086883</v>
+        <v>44.59880911997172</v>
       </c>
       <c r="H23">
-        <v>12.16699370116517</v>
+        <v>4.583578542608379</v>
+      </c>
+      <c r="I23">
+        <v>2.818762315763712</v>
       </c>
       <c r="J23">
+        <v>12.39416765722354</v>
+      </c>
+      <c r="K23">
+        <v>13.46566060569644</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>25.57690532800832</v>
+      </c>
+      <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.39968849520769</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>7.313330502701428</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
       <c r="D24">
-        <v>2.317324252194395</v>
+        <v>3.793105246262209</v>
       </c>
       <c r="E24">
-        <v>38.22806169476723</v>
+        <v>35.20526693890836</v>
       </c>
       <c r="F24">
-        <v>30.38418238760741</v>
+        <v>28.92051923604699</v>
       </c>
       <c r="G24">
-        <v>45.10166282666623</v>
+        <v>41.6157427905623</v>
       </c>
       <c r="H24">
-        <v>11.16408225555712</v>
+        <v>4.091214650455713</v>
+      </c>
+      <c r="I24">
+        <v>3.030606217395392</v>
       </c>
       <c r="J24">
+        <v>11.93235715073235</v>
+      </c>
+      <c r="K24">
+        <v>13.82853012298797</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>23.73567213704959</v>
+      </c>
+      <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.30322617409374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>6.66790462286542</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25">
-        <v>2.227758591924818</v>
+        <v>3.779229532624781</v>
       </c>
       <c r="E25">
-        <v>34.12963562220379</v>
+        <v>31.84356379097002</v>
       </c>
       <c r="F25">
-        <v>27.2754040732164</v>
+        <v>26.82735317957376</v>
       </c>
       <c r="G25">
-        <v>40.45721875450871</v>
+        <v>38.29898907874736</v>
       </c>
       <c r="H25">
-        <v>10.04175757601599</v>
+        <v>3.544554807176262</v>
+      </c>
+      <c r="I25">
+        <v>3.268249778870425</v>
       </c>
       <c r="J25">
+        <v>11.44850718500349</v>
+      </c>
+      <c r="K25">
+        <v>14.22570615764999</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>21.60937673008575</v>
+      </c>
+      <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.90398045560057</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.228383742921554</v>
+        <v>6.293368715246886</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.760380371241682</v>
+        <v>3.785047987722858</v>
       </c>
       <c r="E2">
-        <v>29.16297683838512</v>
+        <v>29.14437454475911</v>
       </c>
       <c r="F2">
-        <v>25.38100468720434</v>
+        <v>25.14598746615353</v>
       </c>
       <c r="G2">
-        <v>36.01005428062462</v>
+        <v>35.09942262008921</v>
       </c>
       <c r="H2">
-        <v>3.12694490898461</v>
+        <v>3.115066320737348</v>
       </c>
       <c r="I2">
-        <v>3.424722696696702</v>
+        <v>3.159761215083937</v>
       </c>
       <c r="J2">
-        <v>11.15364257229897</v>
+        <v>11.58744863238463</v>
       </c>
       <c r="K2">
-        <v>14.59785500986557</v>
+        <v>13.83261557327356</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.28679838232935</v>
       </c>
       <c r="M2">
-        <v>19.84287009370935</v>
+        <v>9.105638734260324</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>19.87417329345739</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.854731693917082</v>
+        <v>6.033053588762233</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.748476786002223</v>
+        <v>3.760118588123977</v>
       </c>
       <c r="E3">
-        <v>27.21485753272972</v>
+        <v>27.20729995466243</v>
       </c>
       <c r="F3">
-        <v>24.31125932733927</v>
+        <v>24.15086858564201</v>
       </c>
       <c r="G3">
-        <v>34.28816556207147</v>
+        <v>33.49820243185226</v>
       </c>
       <c r="H3">
-        <v>2.833190807272698</v>
+        <v>2.828363910648569</v>
       </c>
       <c r="I3">
-        <v>3.550735444620006</v>
+        <v>3.263467200993507</v>
       </c>
       <c r="J3">
-        <v>10.93364511568084</v>
+        <v>11.36142112363016</v>
       </c>
       <c r="K3">
-        <v>14.81105286209113</v>
+        <v>14.05166902632963</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.47904929699983</v>
       </c>
       <c r="M3">
-        <v>18.61041084184665</v>
+        <v>9.292124715253971</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>18.59232130088402</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.608776015069272</v>
+        <v>5.862428937117927</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.740201472151489</v>
+        <v>3.743927476665966</v>
       </c>
       <c r="E4">
-        <v>25.953178714718</v>
+        <v>25.95249800958371</v>
       </c>
       <c r="F4">
-        <v>23.64446865160973</v>
+        <v>23.53033938558974</v>
       </c>
       <c r="G4">
-        <v>33.20680341103748</v>
+        <v>32.49774550839177</v>
       </c>
       <c r="H4">
-        <v>2.647320862611017</v>
+        <v>2.646886776774104</v>
       </c>
       <c r="I4">
-        <v>3.631117967011203</v>
+        <v>3.329981719983302</v>
       </c>
       <c r="J4">
-        <v>10.80127647257755</v>
+        <v>11.22168507305321</v>
       </c>
       <c r="K4">
-        <v>14.94252941982474</v>
+        <v>14.18652994837688</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.60296749107317</v>
       </c>
       <c r="M4">
-        <v>17.81705127360264</v>
+        <v>9.416004341855199</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>17.76596786731463</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.494364570318529</v>
+        <v>5.782392878987831</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.737024815224084</v>
+        <v>3.737500437932141</v>
       </c>
       <c r="E5">
-        <v>25.42238291564625</v>
+        <v>25.4245511135691</v>
       </c>
       <c r="F5">
-        <v>23.35555316663925</v>
+        <v>23.26262557803311</v>
       </c>
       <c r="G5">
-        <v>32.73345938324048</v>
+        <v>32.06294799032687</v>
       </c>
       <c r="H5">
-        <v>2.570108943289341</v>
+        <v>2.571490106971788</v>
       </c>
       <c r="I5">
-        <v>3.667405444576762</v>
+        <v>3.36105755347159</v>
       </c>
       <c r="J5">
-        <v>10.74260309531546</v>
+        <v>11.16002913041394</v>
       </c>
       <c r="K5">
-        <v>14.98832937565433</v>
+        <v>14.23504264032599</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.6473477509881</v>
       </c>
       <c r="M5">
-        <v>17.49380465394942</v>
+        <v>9.466675344267928</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>17.42731560601543</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.462834381037612</v>
+        <v>5.759382621137118</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.737024345543047</v>
+        <v>3.736904255440993</v>
       </c>
       <c r="E6">
-        <v>25.33315497096534</v>
+        <v>25.33581153459917</v>
       </c>
       <c r="F6">
-        <v>23.28911813141112</v>
+        <v>23.20253526838885</v>
       </c>
       <c r="G6">
-        <v>32.62142138641534</v>
+        <v>31.96226849039953</v>
       </c>
       <c r="H6">
-        <v>2.557146431228355</v>
+        <v>2.558838360815171</v>
       </c>
       <c r="I6">
-        <v>3.677002670002298</v>
+        <v>3.370430033237769</v>
       </c>
       <c r="J6">
-        <v>10.72627538173709</v>
+        <v>11.14428325447897</v>
       </c>
       <c r="K6">
-        <v>14.98630803788636</v>
+        <v>14.23515354677401</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.64562497843581</v>
       </c>
       <c r="M6">
-        <v>17.45087783935626</v>
+        <v>9.472626764934745</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>17.38019871757826</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.574440173682568</v>
+        <v>5.842776657408541</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.741674360811844</v>
+        <v>3.747214714188936</v>
       </c>
       <c r="E7">
-        <v>25.94586211896991</v>
+        <v>25.9442206146349</v>
       </c>
       <c r="F7">
-        <v>23.59128142592414</v>
+        <v>23.44919430773017</v>
       </c>
       <c r="G7">
-        <v>33.11159840687356</v>
+        <v>32.48333681165573</v>
       </c>
       <c r="H7">
-        <v>2.646141663826065</v>
+        <v>2.645094739453593</v>
       </c>
       <c r="I7">
-        <v>3.640915541178426</v>
+        <v>3.341716826116214</v>
       </c>
       <c r="J7">
-        <v>10.78252912372309</v>
+        <v>11.14265627011713</v>
       </c>
       <c r="K7">
-        <v>14.91680566234931</v>
+        <v>14.16030943075247</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.57364520669551</v>
       </c>
       <c r="M7">
-        <v>17.84292365371961</v>
+        <v>9.406630628961826</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>17.77905128732145</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.062724027749787</v>
+        <v>6.196185608025851</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.758662181922148</v>
+        <v>3.785772084829546</v>
       </c>
       <c r="E8">
-        <v>28.50453712911162</v>
+        <v>28.48656705134212</v>
       </c>
       <c r="F8">
-        <v>24.95273433698553</v>
+        <v>24.63965562063958</v>
       </c>
       <c r="G8">
-        <v>35.31124579378589</v>
+        <v>34.66912190214688</v>
       </c>
       <c r="H8">
-        <v>3.026609528229674</v>
+        <v>3.015126396553065</v>
       </c>
       <c r="I8">
-        <v>3.479293094638874</v>
+        <v>3.209826946363627</v>
       </c>
       <c r="J8">
-        <v>11.05417270202909</v>
+        <v>11.2858517412142</v>
       </c>
       <c r="K8">
-        <v>14.63663159978466</v>
+        <v>13.86419215719845</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.3083494287699</v>
       </c>
       <c r="M8">
-        <v>19.46264700231427</v>
+        <v>9.145412164652383</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>19.44654409263821</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.941277614848702</v>
+        <v>6.818882703956499</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.781127158662785</v>
+        <v>3.843904352282161</v>
       </c>
       <c r="E9">
-        <v>33.00783417722399</v>
+        <v>32.9617172074886</v>
       </c>
       <c r="F9">
-        <v>27.6140342194077</v>
+        <v>27.09185398138157</v>
       </c>
       <c r="G9">
-        <v>39.56314462387125</v>
+        <v>38.68010342955782</v>
       </c>
       <c r="H9">
-        <v>3.731142887086831</v>
+        <v>3.701908714635243</v>
       </c>
       <c r="I9">
-        <v>3.17046904421819</v>
+        <v>2.954227734939918</v>
       </c>
       <c r="J9">
-        <v>11.63913087753883</v>
+        <v>11.81526648537723</v>
       </c>
       <c r="K9">
-        <v>14.13729003537017</v>
+        <v>13.34042759683554</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.89234491429908</v>
       </c>
       <c r="M9">
-        <v>22.29982955321858</v>
+        <v>8.735291649720811</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>22.39324079463146</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.531201585808936</v>
+        <v>7.297299859480686</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.818475440319164</v>
+        <v>3.923468396559219</v>
       </c>
       <c r="E10">
-        <v>35.12714695708512</v>
+        <v>35.05543068083853</v>
       </c>
       <c r="F10">
-        <v>29.21705863385678</v>
+        <v>28.40186110506601</v>
       </c>
       <c r="G10">
-        <v>42.0364936177066</v>
+        <v>41.37365712991494</v>
       </c>
       <c r="H10">
-        <v>4.184933613015609</v>
+        <v>4.140158040695219</v>
       </c>
       <c r="I10">
-        <v>2.967106560380411</v>
+        <v>2.791253017474831</v>
       </c>
       <c r="J10">
-        <v>11.97379075332006</v>
+        <v>11.77227886612886</v>
       </c>
       <c r="K10">
-        <v>13.7032759837978</v>
+        <v>12.88835263859911</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.57476979136759</v>
       </c>
       <c r="M10">
-        <v>24.17249587561053</v>
+        <v>8.421395998008139</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>24.28183659904933</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.068017682603958</v>
+        <v>7.967702367989777</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.099217746438571</v>
+        <v>4.264565265036029</v>
       </c>
       <c r="E11">
-        <v>28.53367367061618</v>
+        <v>28.44458932200566</v>
       </c>
       <c r="F11">
-        <v>27.58922955746748</v>
+        <v>26.55095815909289</v>
       </c>
       <c r="G11">
-        <v>38.96796021707666</v>
+        <v>39.27252634540524</v>
       </c>
       <c r="H11">
-        <v>4.540744864795882</v>
+        <v>4.494014725537067</v>
       </c>
       <c r="I11">
-        <v>2.932775265996215</v>
+        <v>2.773777458346162</v>
       </c>
       <c r="J11">
-        <v>11.2406942983706</v>
+        <v>10.44503528390988</v>
       </c>
       <c r="K11">
-        <v>13.07037625155467</v>
+        <v>12.41309156813109</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.29291664975882</v>
       </c>
       <c r="M11">
-        <v>24.61687140791265</v>
+        <v>8.01023316580674</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>24.56245446298592</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.447031991751274</v>
+        <v>8.4538348399009</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.373450010918948</v>
+        <v>4.567815067122676</v>
       </c>
       <c r="E12">
-        <v>22.57437705323426</v>
+        <v>22.47370357485382</v>
       </c>
       <c r="F12">
-        <v>25.91998170962627</v>
+        <v>24.8499238695217</v>
       </c>
       <c r="G12">
-        <v>35.93696690983459</v>
+        <v>36.80358241289644</v>
       </c>
       <c r="H12">
-        <v>5.332209716965139</v>
+        <v>5.292566232111236</v>
       </c>
       <c r="I12">
-        <v>2.925206377285725</v>
+        <v>2.768569647272944</v>
       </c>
       <c r="J12">
-        <v>10.5694294309632</v>
+        <v>9.583870608930772</v>
       </c>
       <c r="K12">
-        <v>12.76127075570786</v>
+        <v>12.22338832321896</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.21201764070187</v>
       </c>
       <c r="M12">
-        <v>24.58027547901742</v>
+        <v>7.811272387582398</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>24.41139133142236</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.700695547158018</v>
+        <v>8.790396248363811</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.650722313854674</v>
+        <v>4.831486963200396</v>
       </c>
       <c r="E13">
-        <v>16.62920713745657</v>
+        <v>16.51966417513853</v>
       </c>
       <c r="F13">
-        <v>24.01051475136786</v>
+        <v>23.13814257316528</v>
       </c>
       <c r="G13">
-        <v>32.55231440260334</v>
+        <v>33.5890925756953</v>
       </c>
       <c r="H13">
-        <v>6.335776638175364</v>
+        <v>6.305838861159065</v>
       </c>
       <c r="I13">
-        <v>2.952405739511927</v>
+        <v>2.78975188662823</v>
       </c>
       <c r="J13">
-        <v>9.873288744893003</v>
+        <v>9.101325379937016</v>
       </c>
       <c r="K13">
-        <v>12.64459556664233</v>
+        <v>12.19220725019482</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.21665015027867</v>
       </c>
       <c r="M13">
-        <v>24.20793452651468</v>
+        <v>7.749321188439522</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>23.96320719706564</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.81807094971599</v>
+        <v>8.956209247627013</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.84865107274098</v>
+        <v>4.996863462411758</v>
       </c>
       <c r="E14">
-        <v>12.53324972056308</v>
+        <v>12.41529003077335</v>
       </c>
       <c r="F14">
-        <v>22.53389941881578</v>
+        <v>21.90382247986371</v>
       </c>
       <c r="G14">
-        <v>29.96228337093282</v>
+        <v>30.94939981955068</v>
       </c>
       <c r="H14">
-        <v>7.124812553511189</v>
+        <v>7.101322146261607</v>
       </c>
       <c r="I14">
-        <v>2.989563551208011</v>
+        <v>2.819731025294968</v>
       </c>
       <c r="J14">
-        <v>9.370786855697112</v>
+        <v>8.907753039505517</v>
       </c>
       <c r="K14">
-        <v>12.66031575116196</v>
+        <v>12.2356873095666</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.24687421749427</v>
       </c>
       <c r="M14">
-        <v>23.79964460269785</v>
+        <v>7.771887706830243</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>23.51638542810983</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.80958703805088</v>
+        <v>8.957082498749482</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.893824310511379</v>
+        <v>5.025146189535968</v>
       </c>
       <c r="E15">
-        <v>11.54265393135573</v>
+        <v>11.42424059132688</v>
       </c>
       <c r="F15">
-        <v>22.10576348931635</v>
+        <v>21.58067844732992</v>
       </c>
       <c r="G15">
-        <v>29.2229693709443</v>
+        <v>30.12797921827635</v>
       </c>
       <c r="H15">
-        <v>7.30561511955116</v>
+        <v>7.284030547790199</v>
       </c>
       <c r="I15">
-        <v>3.010885069721085</v>
+        <v>2.838351828165101</v>
       </c>
       <c r="J15">
-        <v>9.2386135833155</v>
+        <v>8.916847228351314</v>
       </c>
       <c r="K15">
-        <v>12.69175608333728</v>
+        <v>12.26637497036015</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.25957101691787</v>
       </c>
       <c r="M15">
-        <v>23.63528348563182</v>
+        <v>7.79942226336031</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>23.34817856302346</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.522916335768638</v>
+        <v>8.643707619523692</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.817061636131792</v>
+        <v>4.883128684600861</v>
       </c>
       <c r="E16">
-        <v>11.35190354843878</v>
+        <v>11.2604079760182</v>
       </c>
       <c r="F16">
-        <v>21.67277588834802</v>
+        <v>21.507547106035</v>
       </c>
       <c r="G16">
-        <v>28.58517072767278</v>
+        <v>28.8773019211054</v>
       </c>
       <c r="H16">
-        <v>7.01478752104446</v>
+        <v>6.998187680556911</v>
       </c>
       <c r="I16">
-        <v>3.09663962635402</v>
+        <v>2.907523475824576</v>
       </c>
       <c r="J16">
-        <v>9.212478394451267</v>
+        <v>9.438515935638646</v>
       </c>
       <c r="K16">
-        <v>12.88553240285287</v>
+        <v>12.42548162123849</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.29322364885283</v>
       </c>
       <c r="M16">
-        <v>22.93569991226077</v>
+        <v>7.977766478300574</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>22.70665637404072</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.230015711615845</v>
+        <v>8.315377159035148</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.649437117222416</v>
+        <v>4.695471066337683</v>
       </c>
       <c r="E17">
-        <v>13.4330715409453</v>
+        <v>13.36283143464812</v>
       </c>
       <c r="F17">
-        <v>22.15615847516013</v>
+        <v>22.09118197604121</v>
       </c>
       <c r="G17">
-        <v>29.53429419095012</v>
+        <v>29.46999822742371</v>
       </c>
       <c r="H17">
-        <v>6.318297513528819</v>
+        <v>6.302706914093906</v>
       </c>
       <c r="I17">
-        <v>3.143902424851061</v>
+        <v>2.946129282842206</v>
       </c>
       <c r="J17">
-        <v>9.461715320279392</v>
+        <v>9.891638629409295</v>
       </c>
       <c r="K17">
-        <v>13.01851648540339</v>
+        <v>12.53605591711796</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.3271303068668</v>
       </c>
       <c r="M17">
-        <v>22.61542731312048</v>
+        <v>8.097079359618069</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>22.44310965823974</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.9267193070319</v>
+        <v>7.946957330328694</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.395674187702661</v>
+        <v>4.446035341183068</v>
       </c>
       <c r="E18">
-        <v>18.0062406311556</v>
+        <v>17.94986066193997</v>
       </c>
       <c r="F18">
-        <v>23.51318591000773</v>
+        <v>23.39434840586006</v>
       </c>
       <c r="G18">
-        <v>32.01333487703604</v>
+        <v>31.64260314217351</v>
       </c>
       <c r="H18">
-        <v>5.281345735365306</v>
+        <v>5.26333635923925</v>
       </c>
       <c r="I18">
-        <v>3.151238745068662</v>
+        <v>2.948639963009418</v>
       </c>
       <c r="J18">
-        <v>9.989562505344642</v>
+        <v>10.45704496190431</v>
       </c>
       <c r="K18">
-        <v>13.16814524875828</v>
+        <v>12.65114678990316</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.38907176193936</v>
       </c>
       <c r="M18">
-        <v>22.57805170129072</v>
+        <v>8.203054704717333</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>22.48456089998256</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.595043039326965</v>
+        <v>7.532393741872659</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.127494153933784</v>
+        <v>4.190005289478482</v>
       </c>
       <c r="E19">
-        <v>24.31472641095027</v>
+        <v>24.26308011770525</v>
       </c>
       <c r="F19">
-        <v>25.37757397364888</v>
+        <v>25.12426926898765</v>
       </c>
       <c r="G19">
-        <v>35.36809024030364</v>
+        <v>34.72140899480073</v>
       </c>
       <c r="H19">
-        <v>4.310488739263056</v>
+        <v>4.286151691436046</v>
       </c>
       <c r="I19">
-        <v>3.141889444265288</v>
+        <v>2.942487690066518</v>
       </c>
       <c r="J19">
-        <v>10.67771945768884</v>
+        <v>11.09627271722677</v>
       </c>
       <c r="K19">
-        <v>13.3759560274995</v>
+        <v>12.79054064069818</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.48711686114881</v>
       </c>
       <c r="M19">
-        <v>22.82491292587179</v>
+        <v>8.31684320024168</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>22.82006504853644</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.304042219446933</v>
+        <v>7.090657359592324</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.816363620709547</v>
+        <v>3.901020166846848</v>
       </c>
       <c r="E20">
-        <v>34.54201784801477</v>
+        <v>34.48027246700055</v>
       </c>
       <c r="F20">
-        <v>28.66211959140395</v>
+        <v>28.05006272791958</v>
       </c>
       <c r="G20">
-        <v>41.15120560324691</v>
+        <v>40.26755484526032</v>
       </c>
       <c r="H20">
-        <v>4.064221661379526</v>
+        <v>4.025525927478117</v>
       </c>
       <c r="I20">
-        <v>3.050341990401118</v>
+        <v>2.868971600461666</v>
       </c>
       <c r="J20">
-        <v>11.83061774731614</v>
+        <v>11.94417499671079</v>
       </c>
       <c r="K20">
-        <v>13.73716583160636</v>
+        <v>12.96750604576086</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.62656852963717</v>
       </c>
       <c r="M20">
-        <v>23.76394964845691</v>
+        <v>8.468712121004705</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>23.88196854124885</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.694304459598683</v>
+        <v>7.488265992663091</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.803736665965313</v>
+        <v>3.969803121967757</v>
       </c>
       <c r="E21">
-        <v>37.45250705924194</v>
+        <v>37.35466744811094</v>
       </c>
       <c r="F21">
-        <v>30.31568467964006</v>
+        <v>28.89728640782827</v>
       </c>
       <c r="G21">
-        <v>43.79889213313394</v>
+        <v>44.04223550913404</v>
       </c>
       <c r="H21">
-        <v>4.470812457895308</v>
+        <v>4.409768763341785</v>
       </c>
       <c r="I21">
-        <v>2.885126251159245</v>
+        <v>2.739651715028676</v>
       </c>
       <c r="J21">
-        <v>12.25930452646128</v>
+        <v>11.00246363625289</v>
       </c>
       <c r="K21">
-        <v>13.50397558029527</v>
+        <v>12.60765339320259</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.40259128537701</v>
       </c>
       <c r="M21">
-        <v>25.20130444549245</v>
+        <v>8.214714396700186</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>25.23007830022294</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.984366217940055</v>
+        <v>7.79523081627385</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.80453975915203</v>
+        <v>4.032206903540702</v>
       </c>
       <c r="E22">
-        <v>38.84452953233409</v>
+        <v>38.72297247697865</v>
       </c>
       <c r="F22">
-        <v>31.29325461500627</v>
+        <v>29.32995768674143</v>
       </c>
       <c r="G22">
-        <v>45.34088007918051</v>
+        <v>46.37360109858078</v>
       </c>
       <c r="H22">
-        <v>4.711889019794222</v>
+        <v>4.636503683277077</v>
       </c>
       <c r="I22">
-        <v>2.769047535143455</v>
+        <v>2.644055298111499</v>
       </c>
       <c r="J22">
-        <v>12.51016502623967</v>
+        <v>10.3064115978599</v>
       </c>
       <c r="K22">
-        <v>13.35724964397519</v>
+        <v>12.37333190652993</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.27139280108516</v>
       </c>
       <c r="M22">
-        <v>26.05713489561847</v>
+        <v>8.050918107779257</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>26.01927911379898</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.85914475719835</v>
+        <v>7.640977566215143</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.801766002607697</v>
+        <v>3.988254588356114</v>
       </c>
       <c r="E23">
-        <v>38.10649098371123</v>
+        <v>37.99944823740296</v>
       </c>
       <c r="F23">
-        <v>30.81743169887126</v>
+        <v>29.21213906812524</v>
       </c>
       <c r="G23">
-        <v>44.59880911997172</v>
+        <v>45.05944308043055</v>
       </c>
       <c r="H23">
-        <v>4.583578542608379</v>
+        <v>4.516985764515686</v>
       </c>
       <c r="I23">
-        <v>2.818762315763712</v>
+        <v>2.679893716692821</v>
       </c>
       <c r="J23">
-        <v>12.39416765722354</v>
+        <v>10.83270407736837</v>
       </c>
       <c r="K23">
-        <v>13.46566060569644</v>
+        <v>12.52619155878192</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.35469697160059</v>
       </c>
       <c r="M23">
-        <v>25.57690532800832</v>
+        <v>8.166912044727976</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>25.59450983695019</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.313330502701428</v>
+        <v>7.082643702667902</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.793105246262209</v>
+        <v>3.87643281234292</v>
       </c>
       <c r="E24">
-        <v>35.20526693890836</v>
+        <v>35.14345074124788</v>
       </c>
       <c r="F24">
-        <v>28.92051923604699</v>
+        <v>28.28744402780573</v>
       </c>
       <c r="G24">
-        <v>41.6157427905623</v>
+        <v>40.67505059262483</v>
       </c>
       <c r="H24">
-        <v>4.091214650455713</v>
+        <v>4.05232278386333</v>
       </c>
       <c r="I24">
-        <v>3.030606217395392</v>
+        <v>2.845624235527838</v>
       </c>
       <c r="J24">
-        <v>11.93235715073235</v>
+        <v>12.04354398261935</v>
       </c>
       <c r="K24">
-        <v>13.82853012298797</v>
+        <v>13.02922643800698</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.66952580683342</v>
       </c>
       <c r="M24">
-        <v>23.73567213704959</v>
+        <v>8.520377564658856</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>23.86953405752534</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.66790462286542</v>
+        <v>6.610156160199576</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.779229532624781</v>
+        <v>3.828996003101313</v>
       </c>
       <c r="E25">
-        <v>31.84356379097002</v>
+        <v>31.80647103629296</v>
       </c>
       <c r="F25">
-        <v>26.82735317957376</v>
+        <v>26.41821766408883</v>
       </c>
       <c r="G25">
-        <v>38.29898907874736</v>
+        <v>37.41119403782156</v>
       </c>
       <c r="H25">
-        <v>3.544554807176262</v>
+        <v>3.520968279946829</v>
       </c>
       <c r="I25">
-        <v>3.268249778870425</v>
+        <v>3.040497044327018</v>
       </c>
       <c r="J25">
-        <v>11.44850718500349</v>
+        <v>11.73327888822694</v>
       </c>
       <c r="K25">
-        <v>14.22570615764999</v>
+        <v>13.45518016886021</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.97687360108478</v>
       </c>
       <c r="M25">
-        <v>21.60937673008575</v>
+        <v>8.819510380054439</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>21.67904670732428</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
